--- a/Intern Tracker 2.xlsx
+++ b/Intern Tracker 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smrut\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4B72DA-1FB8-4667-A672-58A8F2A60DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9517AAA9-25A6-4F47-8AA3-0EB0EB7C04F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C1A47EE2-4C42-424B-9565-3E75795ED2B7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{C1A47EE2-4C42-424B-9565-3E75795ED2B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily task tracker" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>Date</t>
   </si>
@@ -160,30 +160,6 @@
     <t>Practice simple SELECT queries on sample databases</t>
   </si>
   <si>
-    <t>Data Filtering &amp; Sorting</t>
-  </si>
-  <si>
-    <t>ORDER BY, DISTINCT, LIMIT, GROUP BY, HAVING</t>
-  </si>
-  <si>
-    <t>How to filter and group data effectively</t>
-  </si>
-  <si>
-    <t>Work with aggregation functions (SUM, COUNT, AVG)</t>
-  </si>
-  <si>
-    <t>Aggregation Functions</t>
-  </si>
-  <si>
-    <t>SUM, COUNT, AVG, MIN, MAX</t>
-  </si>
-  <si>
-    <t>How to summarize large datasets using aggregate functions</t>
-  </si>
-  <si>
-    <t>Learn about JOIN operations for combining tables</t>
-  </si>
-  <si>
     <t>Joins &amp; Relationships</t>
   </si>
   <si>
@@ -290,6 +266,36 @@
   </si>
   <si>
     <t>Deep dive into positional encoding and multi-head attention,Implement attention mechanisms from scratch</t>
+  </si>
+  <si>
+    <t>Aggregation Functions,Data Filtering &amp; Sorting</t>
+  </si>
+  <si>
+    <t>SUM, COUNT, AVG, MIN, MAX,ORDER BY, DISTINCT, LIMIT, GROUP BY, HAVING</t>
+  </si>
+  <si>
+    <t>How to summarize large datasets using aggregate functions,How to filter and group data effectively</t>
+  </si>
+  <si>
+    <t>Learn about JOIN operations for combining tables,Work with aggregation functions (SUM, COUNT, AVG)</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>PowerBI</t>
+  </si>
+  <si>
+    <t>Machine Learning</t>
+  </si>
+  <si>
+    <t>NLP</t>
+  </si>
+  <si>
+    <t>Statistics</t>
   </si>
 </sst>
 </file>
@@ -688,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5671AE0C-EE20-4622-BEDD-A6305D137BE4}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -856,199 +862,185 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
-        <v>45730</v>
+        <v>45733</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>45734</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>45733</v>
-      </c>
-      <c r="B11" s="4" t="s">
+    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>45735</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>45734</v>
-      </c>
-      <c r="B12" s="4" t="s">
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>45736</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>45735</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
-        <v>45736</v>
+        <v>45737</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>45740</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>45737</v>
-      </c>
-      <c r="B15" s="4" t="s">
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>45741</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>45740</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
-        <v>45741</v>
+        <v>45742</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>45743</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <v>45742</v>
-      </c>
-      <c r="B18" s="4" t="s">
+    <row r="19" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>45744</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <v>45743</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
-        <v>45744</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>84</v>
-      </c>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="A21" s="3"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
@@ -1064,9 +1056,6 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1076,14 +1065,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CEC60E7-59AE-4787-B67A-DA7346DD6AC2}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.109375" customWidth="1"/>
     <col min="3" max="3" width="18.44140625" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" customWidth="1"/>
@@ -1103,6 +1093,72 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
